--- a/basic English learn/the part of passage/2024-3-2(2)/z allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-2(2)/z allwords.xlsx
@@ -1438,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1468,20 +1468,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1540,20 +1546,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1604,12 +1616,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1661,20 +1676,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1685,12 +1706,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1701,12 +1725,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1733,12 +1760,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1757,12 +1787,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
